--- a/reg/totalidsd.xlsx
+++ b/reg/totalidsd.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
   <si>
     <t xml:space="preserve">part</t>
   </si>
@@ -68,37 +68,22 @@
     <t xml:space="preserve">3.630***</t>
   </si>
   <si>
-    <t xml:space="preserve">1.174*</t>
+    <t xml:space="preserve">1.919</t>
   </si>
   <si>
     <t xml:space="preserve">2.636***</t>
   </si>
   <si>
-    <t xml:space="preserve">-0.937</t>
+    <t xml:space="preserve">0.292</t>
   </si>
   <si>
     <t xml:space="preserve">(0.311)</t>
   </si>
   <si>
-    <t xml:space="preserve">(0.572)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.713)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">y23</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.007</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.084*</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.063)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.036)</t>
+    <t xml:space="preserve">(0.724)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.789)</t>
   </si>
   <si>
     <t xml:space="preserve">gof</t>
@@ -119,22 +104,22 @@
     <t xml:space="preserve">0.177</t>
   </si>
   <si>
-    <t xml:space="preserve">0.587</t>
+    <t xml:space="preserve">0.426</t>
   </si>
   <si>
     <t xml:space="preserve">0.112</t>
   </si>
   <si>
-    <t xml:space="preserve">0.666</t>
+    <t xml:space="preserve">0.501</t>
   </si>
   <si>
     <t xml:space="preserve">R2 Within</t>
   </si>
   <si>
-    <t xml:space="preserve">0.028</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.018</t>
+    <t xml:space="preserve">0.062</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.002</t>
   </si>
 </sst>
 </file>
@@ -583,117 +568,71 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>7</v>
+        <v>24</v>
       </c>
       <c r="B6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C6" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D6" t="s">
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="E6" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F6" t="s">
-        <v>11</v>
+        <v>27</v>
       </c>
       <c r="G6" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>7</v>
+        <v>24</v>
       </c>
       <c r="B7" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="C7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D7" t="s">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="E7" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="F7" t="s">
-        <v>11</v>
+        <v>31</v>
       </c>
       <c r="G7" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="B8" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="C8" t="s">
         <v>11</v>
       </c>
       <c r="D8" t="s">
-        <v>31</v>
+        <v>11</v>
       </c>
       <c r="E8" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="F8" t="s">
-        <v>32</v>
+        <v>11</v>
       </c>
       <c r="G8" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="s">
-        <v>29</v>
-      </c>
-      <c r="B9" t="s">
-        <v>33</v>
-      </c>
-      <c r="C9" t="s">
-        <v>11</v>
-      </c>
-      <c r="D9" t="s">
-        <v>34</v>
-      </c>
-      <c r="E9" t="s">
         <v>35</v>
-      </c>
-      <c r="F9" t="s">
-        <v>36</v>
-      </c>
-      <c r="G9" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="s">
-        <v>29</v>
-      </c>
-      <c r="B10" t="s">
-        <v>38</v>
-      </c>
-      <c r="C10" t="s">
-        <v>11</v>
-      </c>
-      <c r="D10" t="s">
-        <v>11</v>
-      </c>
-      <c r="E10" t="s">
-        <v>39</v>
-      </c>
-      <c r="F10" t="s">
-        <v>11</v>
-      </c>
-      <c r="G10" t="s">
-        <v>40</v>
       </c>
     </row>
   </sheetData>

--- a/reg/totalidsd.xlsx
+++ b/reg/totalidsd.xlsx
@@ -68,22 +68,22 @@
     <t xml:space="preserve">3.630***</t>
   </si>
   <si>
-    <t xml:space="preserve">1.919</t>
+    <t xml:space="preserve">1.174</t>
   </si>
   <si>
     <t xml:space="preserve">2.636***</t>
   </si>
   <si>
-    <t xml:space="preserve">0.292</t>
+    <t xml:space="preserve">-0.937*</t>
   </si>
   <si>
     <t xml:space="preserve">(0.311)</t>
   </si>
   <si>
-    <t xml:space="preserve">(0.724)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.789)</t>
+    <t xml:space="preserve">(0.349)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.384)</t>
   </si>
   <si>
     <t xml:space="preserve">gof</t>
@@ -104,22 +104,22 @@
     <t xml:space="preserve">0.177</t>
   </si>
   <si>
-    <t xml:space="preserve">0.426</t>
+    <t xml:space="preserve">0.587</t>
   </si>
   <si>
     <t xml:space="preserve">0.112</t>
   </si>
   <si>
-    <t xml:space="preserve">0.501</t>
+    <t xml:space="preserve">0.666</t>
   </si>
   <si>
     <t xml:space="preserve">R2 Within</t>
   </si>
   <si>
-    <t xml:space="preserve">0.062</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.002</t>
+    <t xml:space="preserve">0.026</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.018</t>
   </si>
 </sst>
 </file>
